--- a/ikMount/rotate.xlsx
+++ b/ikMount/rotate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -358,12 +358,12 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -374,21 +374,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="C2">
-        <v>-1.57</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3">
         <f>COS(A2)*COS(B2)</f>
-        <v>1</v>
+        <v>7.9632671073326335E-4</v>
       </c>
       <c r="E3">
         <f>COS(A2)*SIN(B2)*SIN(C2)-SIN(A2)*COS(C2)</f>
@@ -396,31 +396,31 @@
       </c>
       <c r="F3">
         <f>COS(A2)*SIN(B2)*COS(C2)+SIN(A2)*SIN(C2)</f>
-        <v>0</v>
+        <v>0.99999968293183461</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4">
         <f>SIN(A2)*COS(B2)</f>
         <v>0</v>
       </c>
       <c r="E4">
         <f>SIN(A2)*SIN(B2)*SIN(C2)+COS(A2)*COS(C2)</f>
-        <v>7.9632671073326335E-4</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <f>SIN(A2)*SIN(B2)*COS(C2)-COS(A2)*SIN(C2)</f>
-        <v>0.99999968293183461</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5">
         <f>-SIN(B2)</f>
-        <v>0</v>
+        <v>-0.99999968293183461</v>
       </c>
       <c r="E5">
         <f>COS(B2)*SIN(C2)</f>
-        <v>-0.99999968293183461</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f>COS(B2)*COS(C2)</f>

--- a/ikMount/rotate.xlsx
+++ b/ikMount/rotate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -358,12 +358,12 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -374,49 +374,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="B2">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D3">
         <f>COS(A2)*COS(B2)</f>
-        <v>7.9632671073326335E-4</v>
+        <v>-0.9999987317275395</v>
       </c>
       <c r="E3">
         <f>COS(A2)*SIN(B2)*SIN(C2)-SIN(A2)*COS(C2)</f>
-        <v>0</v>
+        <v>-1.5926529164868282E-3</v>
       </c>
       <c r="F3">
         <f>COS(A2)*SIN(B2)*COS(C2)+SIN(A2)*SIN(C2)</f>
-        <v>0.99999968293183461</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4">
         <f>SIN(A2)*COS(B2)</f>
-        <v>0</v>
+        <v>1.5926529164868282E-3</v>
       </c>
       <c r="E4">
         <f>SIN(A2)*SIN(B2)*SIN(C2)+COS(A2)*COS(C2)</f>
-        <v>1</v>
+        <v>-0.9999987317275395</v>
       </c>
       <c r="F4">
         <f>SIN(A2)*SIN(B2)*COS(C2)-COS(A2)*SIN(C2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5">
         <f>-SIN(B2)</f>
-        <v>-0.99999968293183461</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f>COS(B2)*SIN(C2)</f>
@@ -424,7 +424,7 @@
       </c>
       <c r="F5">
         <f>COS(B2)*COS(C2)</f>
-        <v>7.9632671073326335E-4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
